--- a/source/logs/resumos/resumoGeral_excel.xlsx
+++ b/source/logs/resumos/resumoGeral_excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -33,14 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">503.0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239.0
 </t>
   </si>
   <si>
@@ -83,8 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +137,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,79 +314,112 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +729,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,104 +750,104 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="I2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="19">
         <v>13766566717</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="21">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="21">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="23">
         <v>41</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
         <v>2.8125</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>16050218730</v>
       </c>
       <c r="B4" s="2">
@@ -788,62 +868,62 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="17">
         <v>4.6666666666700003</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="19">
         <v>14881475746</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="23">
         <v>16</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
         <v>3.1666666666699999</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="6">
         <v>13291895746</v>
       </c>
       <c r="B6" s="2">
@@ -864,62 +944,62 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="17">
         <v>1.44444444444</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>107</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>214</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="19">
         <v>14863337701</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="21">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="21">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="23">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="23">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
         <v>503</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="25">
         <v>582</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="6">
         <v>19157538727</v>
       </c>
       <c r="B8" s="2">
@@ -940,62 +1020,62 @@
       <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <v>2.63157894737</v>
       </c>
-      <c r="I8" s="5">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="4">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4">
         <v>2090</v>
       </c>
-      <c r="K8" s="5">
-        <v>-299.8</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="13">
+        <v>-315.578947368</v>
+      </c>
+      <c r="L8" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>12445659701</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="23">
+        <v>12</v>
+      </c>
+      <c r="F9" s="23">
+        <v>24</v>
+      </c>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1.8571428571399999</v>
+      </c>
+      <c r="I9" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>12445659701</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="J9" s="25">
         <v>956</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="39">
         <v>-1280</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>5</v>
+      <c r="L9" s="38">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="6">
         <v>13449269674</v>
       </c>
       <c r="B10" s="2">
@@ -1016,62 +1096,62 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="17">
         <v>6</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="19">
         <v>13414488353</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="21">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>1.8571428571399999</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="6">
         <v>36860583754</v>
       </c>
       <c r="B12" s="2">
@@ -1092,62 +1172,62 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="17">
         <v>1.11111111111</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="19">
         <v>26888875725</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="21">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="21">
         <v>24</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="21">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
         <v>3.4285714285700002</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="6">
         <v>13451846137</v>
       </c>
       <c r="B14" s="2">
@@ -1168,62 +1248,62 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="17">
         <v>4.5714285714300003</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>298</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>179.4</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>15875841745</v>
+      </c>
+      <c r="B15" s="21">
+        <v>64</v>
+      </c>
+      <c r="C15" s="21">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21">
+        <v>31</v>
+      </c>
+      <c r="E15" s="23">
+        <v>5</v>
+      </c>
+      <c r="F15" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>15875841745</v>
-      </c>
-      <c r="B15" s="2">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="G15" s="23">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="I15" s="25">
+        <v>4</v>
+      </c>
+      <c r="J15" s="25">
+        <v>264</v>
+      </c>
+      <c r="K15" s="25">
+        <v>237.75</v>
+      </c>
+      <c r="L15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.60869565217400001</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5">
-        <v>264</v>
-      </c>
-      <c r="K15" s="5">
-        <v>237.75</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="6">
         <v>15149232700</v>
       </c>
       <c r="B16" s="2">
@@ -1244,62 +1324,62 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="17">
         <v>1.5</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="19">
         <v>14875841745</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="23">
         <v>16</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
         <v>1.4545454545500001</v>
       </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="6">
         <v>14759630767</v>
       </c>
       <c r="B18" s="2">
@@ -1320,57 +1400,57 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="17">
         <v>2.11111111111</v>
       </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
+      <c r="A19" s="20">
         <v>10823510751</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="22">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
         <v>41</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="24">
         <v>110</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
         <v>2.55813953488</v>
       </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11" t="s">
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0</v>
+      </c>
+      <c r="K19" s="27">
+        <v>0</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>1</v>
       </c>
     </row>
